--- a/CIMR.xlsx
+++ b/CIMR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="60" windowWidth="14880" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Comp controls" sheetId="1" r:id="rId1"/>
@@ -85,30 +85,6 @@
     <t>Sample name</t>
   </si>
   <si>
-    <t>Compensation Controls_CCR4 PE-Cy7 YG Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CCR7 PE YG Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD3 Pacific Blue Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD4 PerCP-Cy5-5 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD20 APC-Cy7 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD38 APC Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_HLADR AmCyan Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_LIVE_GREEN Alexa Fluor 488 Stained Control.fcs</t>
-  </si>
-  <si>
     <t>sorry guys -PMT  voltage flipped back after I have set it lower and I did not notice it, thus higher MFI value - this is however not that far from 66 and still is within the linear range of the PMT</t>
   </si>
   <si>
@@ -250,52 +226,76 @@
     <t>T_CELL_12828_002_P1.fcs</t>
   </si>
   <si>
-    <t>CD45RA:PE-Cy7</t>
-  </si>
-  <si>
-    <t>CD194:PE-Cy7</t>
-  </si>
-  <si>
-    <t>CD27:PE-Cy7</t>
-  </si>
-  <si>
-    <t>CD11c:PE-Cy7</t>
-  </si>
-  <si>
-    <t>CD196:PE-Cy7</t>
-  </si>
-  <si>
-    <t>CD38:APC</t>
-  </si>
-  <si>
-    <t>CD127:Alexa 647</t>
-  </si>
-  <si>
-    <t>CD8:APC-H7</t>
-  </si>
-  <si>
-    <t>CD45RO:APC-H7</t>
-  </si>
-  <si>
-    <t>CD3+19+20:APC-H7</t>
-  </si>
-  <si>
-    <t>CD4:PerCP-Cy5-5</t>
-  </si>
-  <si>
-    <t>LIVE GREEN:Alexa Fluor</t>
-  </si>
-  <si>
-    <t>CD20:APC-Cy7</t>
-  </si>
-  <si>
-    <t>CD197:PE YG</t>
-  </si>
-  <si>
-    <t>CD3:Pacific Blue</t>
-  </si>
-  <si>
-    <t>HLA-DR:AmCyan</t>
+    <t>CD197:PE YG-A</t>
+  </si>
+  <si>
+    <t>CD4:PerCP-Cy5-5-A</t>
+  </si>
+  <si>
+    <t>CD127:APC-A</t>
+  </si>
+  <si>
+    <t>CD194:PE-Cy7 YG-A</t>
+  </si>
+  <si>
+    <t>CD38:APC-A</t>
+  </si>
+  <si>
+    <t>CD20:APC-Cy7-A</t>
+  </si>
+  <si>
+    <t>CD3:Pacific Blue-A</t>
+  </si>
+  <si>
+    <t>HLA-DR:AmCyan-A</t>
+  </si>
+  <si>
+    <t>CD8:APC-Cy7-A</t>
+  </si>
+  <si>
+    <t>CD45RO:APC-Cy7-A</t>
+  </si>
+  <si>
+    <t>CD3+19+20:APC-Cy7-A</t>
+  </si>
+  <si>
+    <t>CD196:PE-Cy7-A</t>
+  </si>
+  <si>
+    <t>CD11c:PE-Cy7-A</t>
+  </si>
+  <si>
+    <t>CD27:PE-Cy7-A</t>
+  </si>
+  <si>
+    <t>CD45RA:PE-Cy7-A</t>
+  </si>
+  <si>
+    <t>LIVE GREEN:Alexa Fluor 488-A</t>
+  </si>
+  <si>
+    <t>Compensation Controls_LIVE_GREEN Alexa Fluor 488-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CCR7 PE YG-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD4 PerCP-Cy5-5-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CCR4 PE-Cy7 YG-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD38 APC-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD20 APC-Cy7-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD3 Pacific Blue-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_HLADR AmCyan-A Stained Control.fcs</t>
   </si>
 </sst>
 </file>
@@ -861,13 +861,13 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="95.5" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
@@ -918,10 +918,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="9" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>2</v>
@@ -941,10 +941,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="9" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>2</v>
@@ -962,15 +962,15 @@
         <v>78242</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="9" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>2</v>
@@ -991,7 +991,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>7</v>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>8</v>
@@ -1035,7 +1035,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="B9" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="13"/>
       <c r="B10" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>11</v>
@@ -1077,7 +1077,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="13"/>
       <c r="B11" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="9" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>13</v>
@@ -1121,7 +1121,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="13"/>
       <c r="B13" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>8</v>
@@ -1142,7 +1142,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="13"/>
       <c r="B14" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>14</v>
@@ -1163,7 +1163,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="13"/>
       <c r="B15" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>8</v>
@@ -1183,10 +1183,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>10</v>
@@ -1207,7 +1207,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="13"/>
       <c r="B17" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>11</v>
@@ -1227,10 +1227,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="9" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>2</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>2</v>
@@ -1322,10 +1322,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="18" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1339,10 +1339,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="18" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1373,10 +1373,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="18" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1390,10 +1390,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="18" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1407,10 +1407,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="18" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1424,10 +1424,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1441,10 +1441,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="18" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -1458,10 +1458,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="18" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="17" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -1509,10 +1509,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="17" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -1560,10 +1560,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -1577,10 +1577,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="17" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -1594,10 +1594,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1611,10 +1611,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -1645,10 +1645,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -1679,10 +1679,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -1696,10 +1696,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -1730,10 +1730,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="14" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -1747,10 +1747,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -1764,10 +1764,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="14" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -1781,10 +1781,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="15" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="15" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1832,10 +1832,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="15" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1866,10 +1866,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1883,10 +1883,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="15" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -1917,10 +1917,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="15" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -1934,10 +1934,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="16" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -1985,10 +1985,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -2002,10 +2002,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -2019,10 +2019,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -2036,10 +2036,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -2053,10 +2053,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -2070,10 +2070,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
